--- a/data/trans_orig/P0802-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P0802-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D350C43-6172-44EA-99B5-98370DA9DDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34DE9445-1BDC-4D8D-A6D2-C6F5A830EBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F6DA3ED5-213F-4A02-9DA1-CEBC4C07126C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7E9497D4-D479-4D13-9880-3094B990498F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="430">
   <si>
     <t>Población según limitación a subir varios pisos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>70,15%</t>
   </si>
   <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
   </si>
   <si>
     <t>54,42%</t>
   </si>
   <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
   </si>
   <si>
     <t>61,33%</t>
   </si>
   <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
   </si>
   <si>
     <t>SI, LIMITA UN POCO</t>
@@ -107,7 +107,7 @@
     <t>21,43%</t>
   </si>
   <si>
-    <t>19,02%</t>
+    <t>19,14%</t>
   </si>
   <si>
     <t>24,0%</t>
@@ -116,19 +116,19 @@
     <t>32,98%</t>
   </si>
   <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
   </si>
   <si>
     <t>27,9%</t>
   </si>
   <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
   </si>
   <si>
     <t>SI, LIMITA MUCHO</t>
@@ -137,28 +137,28 @@
     <t>8,42%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
   </si>
   <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
   </si>
   <si>
     <t>100%</t>
@@ -170,37 +170,37 @@
     <t>93,29%</t>
   </si>
   <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
   </si>
   <si>
     <t>91,35%</t>
   </si>
   <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>92,35%</t>
   </si>
   <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>6,29%</t>
@@ -209,1114 +209,1126 @@
     <t>5,19%</t>
   </si>
   <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
     <t>7,62%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
   </si>
   <si>
     <t>5,9%</t>
   </si>
   <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>11,61%</t>
   </si>
   <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
   </si>
   <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
     <t>83,07%</t>
   </si>
   <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
   </si>
   <si>
     <t>77,51%</t>
   </si>
   <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
   </si>
   <si>
     <t>80,13%</t>
   </si>
   <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
   </si>
   <si>
     <t>7,1%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C13B2E5-AE24-4903-BB78-CB177C0627FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4465332-0729-4C0E-A16C-DD7B8C06B400}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2497,7 +2509,7 @@
         <v>5285</v>
       </c>
       <c r="N16" s="7">
-        <v>5413827</v>
+        <v>5413828</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>103</v>
@@ -2578,7 +2590,7 @@
         <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>203</v>
@@ -2587,13 +2599,13 @@
         <v>213524</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>326</v>
@@ -2602,13 +2614,13 @@
         <v>334529</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,7 +2662,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2664,7 +2676,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2683,7 +2695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CF3AA8-85AF-4567-BE38-507FC78C5B02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EF3398-177C-4BE4-98CC-2BF0E9661C41}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2700,7 +2712,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2807,13 +2819,13 @@
         <v>651378</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>635</v>
@@ -2822,13 +2834,13 @@
         <v>683219</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>1248</v>
@@ -2837,13 +2849,13 @@
         <v>1334597</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2870,13 @@
         <v>199080</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>358</v>
@@ -2873,13 +2885,13 @@
         <v>381132</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>543</v>
@@ -2888,13 +2900,13 @@
         <v>580212</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2921,13 @@
         <v>124185</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H6" s="7">
         <v>253</v>
@@ -2924,13 +2936,13 @@
         <v>272358</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M6" s="7">
         <v>363</v>
@@ -2939,13 +2951,13 @@
         <v>396543</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,13 +3025,13 @@
         <v>1787368</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>1437</v>
@@ -3028,13 +3040,13 @@
         <v>1536866</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>3132</v>
@@ -3043,13 +3055,13 @@
         <v>3324234</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3076,13 @@
         <v>134625</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H9" s="7">
         <v>142</v>
@@ -3079,13 +3091,13 @@
         <v>157340</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M9" s="7">
         <v>265</v>
@@ -3094,13 +3106,13 @@
         <v>291966</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3127,13 @@
         <v>38043</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
@@ -3130,13 +3142,13 @@
         <v>63597</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M10" s="7">
         <v>91</v>
@@ -3145,13 +3157,13 @@
         <v>101639</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,13 +3231,13 @@
         <v>445078</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H12" s="7">
         <v>377</v>
@@ -3234,13 +3246,13 @@
         <v>420453</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M12" s="7">
         <v>785</v>
@@ -3249,13 +3261,13 @@
         <v>865531</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3270,13 +3282,13 @@
         <v>24820</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -3285,13 +3297,13 @@
         <v>28978</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -3300,13 +3312,13 @@
         <v>53798</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3333,13 @@
         <v>11283</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -3339,10 +3351,10 @@
         <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -3351,13 +3363,13 @@
         <v>20483</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3437,13 @@
         <v>2883825</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H16" s="7">
         <v>2449</v>
@@ -3440,13 +3452,13 @@
         <v>2640538</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M16" s="7">
         <v>5165</v>
@@ -3455,13 +3467,13 @@
         <v>5524363</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3488,13 @@
         <v>358525</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H17" s="7">
         <v>526</v>
@@ -3491,13 +3503,13 @@
         <v>567450</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M17" s="7">
         <v>855</v>
@@ -3506,13 +3518,13 @@
         <v>925976</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3539,13 @@
         <v>173511</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H18" s="7">
         <v>318</v>
@@ -3542,13 +3554,13 @@
         <v>345154</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M18" s="7">
         <v>472</v>
@@ -3557,13 +3569,13 @@
         <v>518665</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,7 +3631,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3638,7 +3650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892F40C2-D518-4DF2-A596-AE3905E36EEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6542EB2-B2AF-46B5-85BA-7CA7009A9561}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3655,7 +3667,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3762,13 +3774,13 @@
         <v>500879</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>476</v>
@@ -3777,13 +3789,13 @@
         <v>508108</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>970</v>
@@ -3792,13 +3804,13 @@
         <v>1008986</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3825,13 @@
         <v>158439</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>243</v>
@@ -3828,13 +3840,13 @@
         <v>277189</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>410</v>
@@ -3843,13 +3855,13 @@
         <v>435628</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,10 +3879,10 @@
         <v>34</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H6" s="7">
         <v>173</v>
@@ -3879,13 +3891,13 @@
         <v>209363</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M6" s="7">
         <v>274</v>
@@ -3894,13 +3906,13 @@
         <v>304392</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,13 +3980,13 @@
         <v>1880542</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>1664</v>
@@ -3983,13 +3995,13 @@
         <v>1713485</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>3433</v>
@@ -3998,13 +4010,13 @@
         <v>3594027</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4031,13 @@
         <v>147791</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>119</v>
+        <v>264</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H9" s="7">
         <v>165</v>
@@ -4034,13 +4046,13 @@
         <v>185127</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M9" s="7">
         <v>304</v>
@@ -4049,13 +4061,13 @@
         <v>332917</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4082,13 @@
         <v>48052</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>79</v>
@@ -4085,13 +4097,13 @@
         <v>89689</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>173</v>
+        <v>277</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>123</v>
@@ -4100,13 +4112,13 @@
         <v>137741</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,10 +4189,10 @@
         <v>280</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H12" s="7">
         <v>487</v>
@@ -4189,13 +4201,13 @@
         <v>502790</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M12" s="7">
         <v>951</v>
@@ -4207,10 +4219,10 @@
         <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,13 +4237,13 @@
         <v>32286</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -4240,13 +4252,13 @@
         <v>29874</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -4255,13 +4267,13 @@
         <v>62160</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4288,13 @@
         <v>10384</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -4291,13 +4303,13 @@
         <v>16476</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -4306,13 +4318,13 @@
         <v>26860</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,13 +4392,13 @@
         <v>2885637</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H16" s="7">
         <v>2627</v>
@@ -4395,13 +4407,13 @@
         <v>2724382</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>5354</v>
@@ -4410,13 +4422,13 @@
         <v>5610019</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,13 +4443,13 @@
         <v>338515</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>434</v>
@@ -4446,13 +4458,13 @@
         <v>492190</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M17" s="7">
         <v>767</v>
@@ -4461,13 +4473,13 @@
         <v>830705</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4494,13 @@
         <v>153465</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H18" s="7">
         <v>265</v>
@@ -4497,13 +4509,13 @@
         <v>315528</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M18" s="7">
         <v>420</v>
@@ -4512,13 +4524,13 @@
         <v>468994</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,7 +4586,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4593,7 +4605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E94BAF-3DBC-49F0-8B01-6DBE16D8BE15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F65C10-A8C5-469F-A54A-4FE4F794B29D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4610,7 +4622,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4717,13 +4729,13 @@
         <v>346534</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>621</v>
@@ -4732,13 +4744,13 @@
         <v>375791</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>1054</v>
@@ -4747,13 +4759,13 @@
         <v>722324</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4780,13 @@
         <v>110389</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>216</v>
+        <v>342</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H5" s="7">
         <v>440</v>
@@ -4783,13 +4795,13 @@
         <v>252663</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M5" s="7">
         <v>581</v>
@@ -4798,13 +4810,13 @@
         <v>363052</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4831,13 @@
         <v>84711</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H6" s="7">
         <v>365</v>
@@ -4834,13 +4846,13 @@
         <v>206869</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M6" s="7">
         <v>482</v>
@@ -4849,13 +4861,13 @@
         <v>291580</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,28 +4935,28 @@
         <v>1832017</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H8" s="7">
         <v>2369</v>
       </c>
       <c r="I8" s="7">
-        <v>1921005</v>
+        <v>1921006</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M8" s="7">
         <v>4051</v>
@@ -4953,13 +4965,13 @@
         <v>3753023</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,13 +4986,13 @@
         <v>265202</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H9" s="7">
         <v>418</v>
@@ -4989,13 +5001,13 @@
         <v>246776</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M9" s="7">
         <v>658</v>
@@ -5004,13 +5016,13 @@
         <v>511978</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>213</v>
+        <v>374</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>253</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5037,13 @@
         <v>64803</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="H10" s="7">
         <v>134</v>
@@ -5040,13 +5052,13 @@
         <v>81738</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>373</v>
+        <v>277</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>204</v>
@@ -5055,13 +5067,13 @@
         <v>146542</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,7 +5100,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5129,13 +5141,13 @@
         <v>625727</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H12" s="7">
         <v>889</v>
@@ -5144,28 +5156,28 @@
         <v>647715</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M12" s="7">
         <v>1509</v>
       </c>
       <c r="N12" s="7">
-        <v>1273443</v>
+        <v>1273442</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,13 +5192,13 @@
         <v>34153</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -5195,13 +5207,13 @@
         <v>48466</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M13" s="7">
         <v>128</v>
@@ -5210,13 +5222,13 @@
         <v>82619</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>396</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,10 +5246,10 @@
         <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -5246,13 +5258,13 @@
         <v>17705</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>398</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
@@ -5264,10 +5276,10 @@
         <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,7 +5321,7 @@
         <v>1684</v>
       </c>
       <c r="N15" s="7">
-        <v>1386108</v>
+        <v>1386107</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5332,16 +5344,16 @@
         <v>2735</v>
       </c>
       <c r="D16" s="7">
-        <v>2804278</v>
+        <v>2804277</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>3879</v>
@@ -5350,28 +5362,28 @@
         <v>2944512</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>6614</v>
       </c>
       <c r="N16" s="7">
-        <v>5748790</v>
+        <v>5748789</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5398,13 @@
         <v>409744</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>942</v>
@@ -5401,13 +5413,13 @@
         <v>547905</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>1367</v>
@@ -5416,13 +5428,13 @@
         <v>957649</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,13 +5449,13 @@
         <v>161855</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="H18" s="7">
         <v>530</v>
@@ -5455,10 +5467,10 @@
         <v>82</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>421</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M18" s="7">
         <v>733</v>
@@ -5467,13 +5479,13 @@
         <v>468168</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,7 +5497,7 @@
         <v>3363</v>
       </c>
       <c r="D19" s="7">
-        <v>3375877</v>
+        <v>3375876</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5515,7 +5527,7 @@
         <v>8714</v>
       </c>
       <c r="N19" s="7">
-        <v>7174607</v>
+        <v>7174606</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5529,7 +5541,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0802-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P0802-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34DE9445-1BDC-4D8D-A6D2-C6F5A830EBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E5F4BA1-C729-4F01-88EE-240DB7D54D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7E9497D4-D479-4D13-9880-3094B990498F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F723692-6E36-42E0-8AD8-0CB170F6AF27}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="435">
   <si>
     <t>Población según limitación a subir varios pisos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>70,15%</t>
   </si>
   <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
   </si>
   <si>
     <t>54,42%</t>
   </si>
   <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
   </si>
   <si>
     <t>61,33%</t>
   </si>
   <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
   </si>
   <si>
     <t>SI, LIMITA UN POCO</t>
@@ -107,25 +107,25 @@
     <t>21,43%</t>
   </si>
   <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
   </si>
   <si>
     <t>32,98%</t>
   </si>
   <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
   </si>
   <si>
     <t>27,9%</t>
   </si>
   <si>
-    <t>26,11%</t>
+    <t>26,13%</t>
   </si>
   <si>
     <t>29,89%</t>
@@ -137,28 +137,28 @@
     <t>8,42%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
   </si>
   <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
   </si>
   <si>
     <t>100%</t>
@@ -170,1153 +170,1168 @@
     <t>93,29%</t>
   </si>
   <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>91,35%</t>
   </si>
   <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>92,35%</t>
   </si>
   <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
   </si>
   <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
   </si>
   <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
     <t>5,06%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
   </si>
   <si>
     <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
   </si>
   <si>
     <t>8,81%</t>
@@ -1740,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4465332-0729-4C0E-A16C-DD7B8C06B400}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41C7782-36AF-451C-8E92-6281B67F84A9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2067,7 +2082,7 @@
         <v>1534</v>
       </c>
       <c r="D8" s="7">
-        <v>1579765</v>
+        <v>1579766</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2220,7 +2235,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2479,7 +2494,7 @@
         <v>2747</v>
       </c>
       <c r="D16" s="7">
-        <v>2820228</v>
+        <v>2820227</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>97</v>
@@ -2632,7 +2647,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2695,7 +2710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EF3398-177C-4BE4-98CC-2BF0E9661C41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B655E98-75E7-438A-AC70-41ED9CE8AC30}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3351,10 +3366,10 @@
         <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -3363,13 +3378,13 @@
         <v>20483</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3452,13 @@
         <v>2883825</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H16" s="7">
         <v>2449</v>
@@ -3452,13 +3467,13 @@
         <v>2640538</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M16" s="7">
         <v>5165</v>
@@ -3467,13 +3482,13 @@
         <v>5524363</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,10 +3503,10 @@
         <v>358525</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>215</v>
@@ -3650,7 +3665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6542EB2-B2AF-46B5-85BA-7CA7009A9561}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5700FE-8DDD-4A3D-9074-4BB95BA68CBF}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3846,7 +3861,7 @@
         <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>140</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>410</v>
@@ -3855,13 +3870,13 @@
         <v>435628</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,10 +3894,10 @@
         <v>34</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H6" s="7">
         <v>173</v>
@@ -3891,13 +3906,13 @@
         <v>209363</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M6" s="7">
         <v>274</v>
@@ -3906,13 +3921,13 @@
         <v>304392</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3995,13 @@
         <v>1880542</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>1664</v>
@@ -3995,13 +4010,13 @@
         <v>1713485</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>3433</v>
@@ -4010,13 +4025,13 @@
         <v>3594027</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4046,13 @@
         <v>147791</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H9" s="7">
         <v>165</v>
@@ -4046,13 +4061,13 @@
         <v>185127</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M9" s="7">
         <v>304</v>
@@ -4061,13 +4076,13 @@
         <v>332917</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4097,13 @@
         <v>48052</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H10" s="7">
         <v>79</v>
@@ -4097,13 +4112,13 @@
         <v>89689</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>278</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>123</v>
@@ -4112,13 +4127,13 @@
         <v>137741</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>90</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4201,13 @@
         <v>504216</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H12" s="7">
         <v>487</v>
@@ -4201,13 +4216,13 @@
         <v>502790</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M12" s="7">
         <v>951</v>
@@ -4219,10 +4234,10 @@
         <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4252,13 @@
         <v>32286</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -4252,13 +4267,13 @@
         <v>29874</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -4267,13 +4282,13 @@
         <v>62160</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4303,13 @@
         <v>10384</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -4303,13 +4318,13 @@
         <v>16476</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -4318,13 +4333,13 @@
         <v>26860</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4407,13 @@
         <v>2885637</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>2627</v>
@@ -4407,13 +4422,13 @@
         <v>2724382</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M16" s="7">
         <v>5354</v>
@@ -4422,13 +4437,13 @@
         <v>5610019</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4458,13 @@
         <v>338515</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H17" s="7">
         <v>434</v>
@@ -4458,13 +4473,13 @@
         <v>492190</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>144</v>
+        <v>322</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M17" s="7">
         <v>767</v>
@@ -4473,13 +4488,13 @@
         <v>830705</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>322</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4509,13 @@
         <v>153465</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H18" s="7">
         <v>265</v>
@@ -4509,13 +4524,13 @@
         <v>315528</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M18" s="7">
         <v>420</v>
@@ -4524,13 +4539,13 @@
         <v>468994</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,7 +4620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F65C10-A8C5-469F-A54A-4FE4F794B29D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F369BFC-D42A-414F-82FB-6B81EC7D978A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4622,7 +4637,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4729,13 +4744,13 @@
         <v>346534</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H4" s="7">
         <v>621</v>
@@ -4744,13 +4759,13 @@
         <v>375791</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M4" s="7">
         <v>1054</v>
@@ -4759,13 +4774,13 @@
         <v>722324</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,10 +4798,10 @@
         <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>440</v>
@@ -4795,13 +4810,13 @@
         <v>252663</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>581</v>
@@ -4810,13 +4825,13 @@
         <v>363052</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4846,13 @@
         <v>84711</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H6" s="7">
         <v>365</v>
@@ -4846,13 +4861,13 @@
         <v>206869</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M6" s="7">
         <v>482</v>
@@ -4861,13 +4876,13 @@
         <v>291580</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,13 +4950,13 @@
         <v>1832017</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H8" s="7">
         <v>2369</v>
@@ -4950,13 +4965,13 @@
         <v>1921006</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>4051</v>
@@ -4965,13 +4980,13 @@
         <v>3753023</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +5001,13 @@
         <v>265202</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H9" s="7">
         <v>418</v>
@@ -5001,13 +5016,13 @@
         <v>246776</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>371</v>
+        <v>84</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M9" s="7">
         <v>658</v>
@@ -5016,13 +5031,13 @@
         <v>511978</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5052,13 @@
         <v>64803</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H10" s="7">
         <v>134</v>
@@ -5052,13 +5067,13 @@
         <v>81738</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>381</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>380</v>
+        <v>117</v>
       </c>
       <c r="M10" s="7">
         <v>204</v>
@@ -5067,13 +5082,13 @@
         <v>146542</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,13 +5156,13 @@
         <v>625727</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H12" s="7">
         <v>889</v>
@@ -5156,13 +5171,13 @@
         <v>647715</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M12" s="7">
         <v>1509</v>
@@ -5171,13 +5186,13 @@
         <v>1273442</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,10 +5210,10 @@
         <v>222</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -5207,13 +5222,13 @@
         <v>48466</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>128</v>
@@ -5222,13 +5237,13 @@
         <v>82619</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,10 +5261,10 @@
         <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -5258,13 +5273,13 @@
         <v>17705</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>406</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
@@ -5276,10 +5291,10 @@
         <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5362,13 @@
         <v>2804277</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>3879</v>
@@ -5362,13 +5377,13 @@
         <v>2944512</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M16" s="7">
         <v>6614</v>
@@ -5377,13 +5392,13 @@
         <v>5748789</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,13 +5413,13 @@
         <v>409744</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="H17" s="7">
         <v>942</v>
@@ -5413,13 +5428,13 @@
         <v>547905</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="M17" s="7">
         <v>1367</v>
@@ -5428,13 +5443,13 @@
         <v>957649</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,13 +5464,13 @@
         <v>161855</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H18" s="7">
         <v>530</v>
@@ -5467,10 +5482,10 @@
         <v>82</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>430</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="M18" s="7">
         <v>733</v>
@@ -5479,13 +5494,13 @@
         <v>468168</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P0802-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P0802-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E5F4BA1-C729-4F01-88EE-240DB7D54D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A64030F0-C46B-41A8-A739-C9EEA92D3966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F723692-6E36-42E0-8AD8-0CB170F6AF27}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F1CB672-2585-4FB3-89A7-CA5891DBCF24}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="426">
   <si>
     <t>Población según limitación a subir varios pisos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,67 +71,67 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>NO, NO LIMITA NADA</t>
+    <t>No, no limita nada</t>
   </si>
   <si>
     <t>70,15%</t>
   </si>
   <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
   </si>
   <si>
     <t>54,42%</t>
   </si>
   <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
   </si>
   <si>
     <t>61,33%</t>
   </si>
   <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>SI, LIMITA UN POCO</t>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>Sí, limita un poco</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>32,98%</t>
   </si>
   <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
   </si>
   <si>
     <t>27,9%</t>
   </si>
   <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>SI, LIMITA MUCHO</t>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>Sí, limita mucho</t>
   </si>
   <si>
     <t>8,42%</t>
@@ -140,25 +140,25 @@
     <t>6,82%</t>
   </si>
   <si>
-    <t>10,18%</t>
+    <t>10,21%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -170,1180 +170,1153 @@
     <t>93,29%</t>
   </si>
   <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>91,35%</t>
   </si>
   <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
   </si>
   <si>
     <t>92,35%</t>
   </si>
   <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
   </si>
   <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
   </si>
   <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
   </si>
   <si>
     <t>84,8%</t>
   </si>
   <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
     <t>77,51%</t>
   </si>
   <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
   </si>
   <si>
     <t>80,13%</t>
   </si>
   <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41C7782-36AF-451C-8E92-6281B67F84A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C12ECF6-25DE-45EC-85CE-142C04239830}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2082,7 +2055,7 @@
         <v>1534</v>
       </c>
       <c r="D8" s="7">
-        <v>1579766</v>
+        <v>1579765</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2235,7 +2208,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2494,7 +2467,7 @@
         <v>2747</v>
       </c>
       <c r="D16" s="7">
-        <v>2820227</v>
+        <v>2820228</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>97</v>
@@ -2524,7 +2497,7 @@
         <v>5285</v>
       </c>
       <c r="N16" s="7">
-        <v>5413828</v>
+        <v>5413827</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>103</v>
@@ -2605,7 +2578,7 @@
         <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="H18" s="7">
         <v>203</v>
@@ -2614,13 +2587,13 @@
         <v>213524</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>326</v>
@@ -2629,13 +2602,13 @@
         <v>334529</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,7 +2620,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2677,7 +2650,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2691,7 +2664,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2710,7 +2683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B655E98-75E7-438A-AC70-41ED9CE8AC30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E22ACFE-56DA-4315-A08A-F663F614D876}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2727,7 +2700,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2834,13 +2807,13 @@
         <v>651378</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>635</v>
@@ -2849,13 +2822,13 @@
         <v>683219</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>1248</v>
@@ -2864,13 +2837,13 @@
         <v>1334597</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2858,13 @@
         <v>199080</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H5" s="7">
         <v>358</v>
@@ -2900,13 +2873,13 @@
         <v>381132</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M5" s="7">
         <v>543</v>
@@ -2915,13 +2888,13 @@
         <v>580212</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2909,13 @@
         <v>124185</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H6" s="7">
         <v>253</v>
@@ -2951,13 +2924,13 @@
         <v>272358</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M6" s="7">
         <v>363</v>
@@ -2966,13 +2939,13 @@
         <v>396543</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3013,13 @@
         <v>1787368</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>1437</v>
@@ -3055,13 +3028,13 @@
         <v>1536866</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M8" s="7">
         <v>3132</v>
@@ -3070,13 +3043,13 @@
         <v>3324234</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3064,13 @@
         <v>134625</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H9" s="7">
         <v>142</v>
@@ -3106,13 +3079,13 @@
         <v>157340</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M9" s="7">
         <v>265</v>
@@ -3121,13 +3094,13 @@
         <v>291966</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3115,13 @@
         <v>38043</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
@@ -3157,13 +3130,13 @@
         <v>63597</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M10" s="7">
         <v>91</v>
@@ -3172,13 +3145,13 @@
         <v>101639</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3219,13 @@
         <v>445078</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H12" s="7">
         <v>377</v>
@@ -3261,13 +3234,13 @@
         <v>420453</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M12" s="7">
         <v>785</v>
@@ -3276,13 +3249,13 @@
         <v>865531</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3270,13 @@
         <v>24820</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -3312,13 +3285,13 @@
         <v>28978</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -3327,13 +3300,13 @@
         <v>53798</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,13 +3321,13 @@
         <v>11283</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -3366,10 +3339,10 @@
         <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -3378,13 +3351,13 @@
         <v>20483</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3425,13 @@
         <v>2883825</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H16" s="7">
         <v>2449</v>
@@ -3467,13 +3440,13 @@
         <v>2640538</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M16" s="7">
         <v>5165</v>
@@ -3482,13 +3455,13 @@
         <v>5524363</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,13 +3476,13 @@
         <v>358525</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H17" s="7">
         <v>526</v>
@@ -3518,13 +3491,13 @@
         <v>567450</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M17" s="7">
         <v>855</v>
@@ -3533,13 +3506,13 @@
         <v>925976</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,13 +3527,13 @@
         <v>173511</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H18" s="7">
         <v>318</v>
@@ -3569,13 +3542,13 @@
         <v>345154</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M18" s="7">
         <v>472</v>
@@ -3584,13 +3557,13 @@
         <v>518665</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,7 +3619,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3665,7 +3638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5700FE-8DDD-4A3D-9074-4BB95BA68CBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1956AA3C-92BC-4BD6-91AB-3684E8F4EB5B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3682,7 +3655,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3789,13 +3762,13 @@
         <v>500879</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>476</v>
@@ -3804,13 +3777,13 @@
         <v>508108</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>970</v>
@@ -3819,13 +3792,13 @@
         <v>1008986</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3813,13 @@
         <v>158439</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>243</v>
@@ -3855,13 +3828,13 @@
         <v>277189</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>410</v>
@@ -3870,13 +3843,13 @@
         <v>435628</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,10 +3867,10 @@
         <v>34</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H6" s="7">
         <v>173</v>
@@ -3906,13 +3879,13 @@
         <v>209363</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>253</v>
+        <v>147</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M6" s="7">
         <v>274</v>
@@ -3921,13 +3894,13 @@
         <v>304392</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +3968,13 @@
         <v>1880542</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>1664</v>
@@ -4010,13 +3983,13 @@
         <v>1713485</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>3433</v>
@@ -4025,13 +3998,13 @@
         <v>3594027</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4019,13 @@
         <v>147791</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H9" s="7">
         <v>165</v>
@@ -4061,13 +4034,13 @@
         <v>185127</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M9" s="7">
         <v>304</v>
@@ -4076,13 +4049,13 @@
         <v>332917</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4070,13 @@
         <v>48052</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H10" s="7">
         <v>79</v>
@@ -4112,13 +4085,13 @@
         <v>89689</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>123</v>
@@ -4127,13 +4100,13 @@
         <v>137741</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4174,13 @@
         <v>504216</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H12" s="7">
         <v>487</v>
@@ -4216,13 +4189,13 @@
         <v>502790</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M12" s="7">
         <v>951</v>
@@ -4234,10 +4207,10 @@
         <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4225,13 @@
         <v>32286</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>292</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -4267,13 +4240,13 @@
         <v>29874</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -4282,13 +4255,13 @@
         <v>62160</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4276,13 @@
         <v>10384</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -4318,13 +4291,13 @@
         <v>16476</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -4333,13 +4306,13 @@
         <v>26860</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4380,13 @@
         <v>2885637</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H16" s="7">
         <v>2627</v>
@@ -4422,13 +4395,13 @@
         <v>2724382</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M16" s="7">
         <v>5354</v>
@@ -4437,13 +4410,13 @@
         <v>5610019</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4431,13 @@
         <v>338515</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H17" s="7">
         <v>434</v>
@@ -4473,13 +4446,13 @@
         <v>492190</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>767</v>
@@ -4488,13 +4461,13 @@
         <v>830705</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4482,13 @@
         <v>153465</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H18" s="7">
         <v>265</v>
@@ -4524,13 +4497,13 @@
         <v>315528</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M18" s="7">
         <v>420</v>
@@ -4539,13 +4512,13 @@
         <v>468994</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,7 +4574,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4620,7 +4593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F369BFC-D42A-414F-82FB-6B81EC7D978A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD14ACE6-5E20-45D7-987E-DA6C08D601EF}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4637,7 +4610,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4744,13 +4717,13 @@
         <v>346534</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H4" s="7">
         <v>621</v>
@@ -4759,13 +4732,13 @@
         <v>375791</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>1054</v>
@@ -4774,13 +4747,13 @@
         <v>722324</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4768,13 @@
         <v>110389</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>216</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="H5" s="7">
         <v>440</v>
@@ -4810,13 +4783,13 @@
         <v>252663</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="M5" s="7">
         <v>581</v>
@@ -4825,13 +4798,13 @@
         <v>363052</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4819,13 @@
         <v>84711</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H6" s="7">
         <v>365</v>
@@ -4861,13 +4834,13 @@
         <v>206869</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="M6" s="7">
         <v>482</v>
@@ -4876,13 +4849,13 @@
         <v>291580</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,28 +4923,28 @@
         <v>1832017</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="H8" s="7">
         <v>2369</v>
       </c>
       <c r="I8" s="7">
-        <v>1921006</v>
+        <v>1921005</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="M8" s="7">
         <v>4051</v>
@@ -4980,13 +4953,13 @@
         <v>3753023</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +4974,13 @@
         <v>265202</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H9" s="7">
         <v>418</v>
@@ -5016,13 +4989,13 @@
         <v>246776</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>84</v>
+        <v>367</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M9" s="7">
         <v>658</v>
@@ -5031,13 +5004,13 @@
         <v>511978</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>376</v>
+        <v>213</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>378</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5025,13 @@
         <v>64803</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="H10" s="7">
         <v>134</v>
@@ -5067,13 +5040,13 @@
         <v>81738</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>375</v>
       </c>
       <c r="M10" s="7">
         <v>204</v>
@@ -5082,13 +5055,13 @@
         <v>146542</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,7 +5088,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5156,13 +5129,13 @@
         <v>625727</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="H12" s="7">
         <v>889</v>
@@ -5171,28 +5144,28 @@
         <v>647715</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="M12" s="7">
         <v>1509</v>
       </c>
       <c r="N12" s="7">
-        <v>1273442</v>
+        <v>1273443</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5180,13 @@
         <v>34153</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -5222,13 +5195,13 @@
         <v>48466</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="M13" s="7">
         <v>128</v>
@@ -5237,13 +5210,13 @@
         <v>82619</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>399</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,10 +5234,10 @@
         <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -5273,13 +5246,13 @@
         <v>17705</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
@@ -5291,10 +5264,10 @@
         <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,7 +5309,7 @@
         <v>1684</v>
       </c>
       <c r="N15" s="7">
-        <v>1386107</v>
+        <v>1386108</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5359,16 +5332,16 @@
         <v>2735</v>
       </c>
       <c r="D16" s="7">
-        <v>2804277</v>
+        <v>2804278</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="H16" s="7">
         <v>3879</v>
@@ -5377,28 +5350,28 @@
         <v>2944512</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M16" s="7">
         <v>6614</v>
       </c>
       <c r="N16" s="7">
-        <v>5748789</v>
+        <v>5748790</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,13 +5386,13 @@
         <v>409744</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="H17" s="7">
         <v>942</v>
@@ -5428,13 +5401,13 @@
         <v>547905</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="M17" s="7">
         <v>1367</v>
@@ -5443,13 +5416,13 @@
         <v>957649</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,13 +5437,13 @@
         <v>161855</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="H18" s="7">
         <v>530</v>
@@ -5482,10 +5455,10 @@
         <v>82</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="M18" s="7">
         <v>733</v>
@@ -5494,13 +5467,13 @@
         <v>468168</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,7 +5485,7 @@
         <v>3363</v>
       </c>
       <c r="D19" s="7">
-        <v>3375876</v>
+        <v>3375877</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5542,7 +5515,7 @@
         <v>8714</v>
       </c>
       <c r="N19" s="7">
-        <v>7174606</v>
+        <v>7174607</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5556,7 +5529,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0802-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P0802-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A64030F0-C46B-41A8-A739-C9EEA92D3966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E09B3055-70D2-4184-B3EE-64A0CB72BB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F1CB672-2585-4FB3-89A7-CA5891DBCF24}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E2259A1C-A8AA-4C06-AB25-2D73E062ED8F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="428">
   <si>
     <t>Población según limitación a subir varios pisos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -1031,292 +1031,298 @@
     <t>Población según limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
   </si>
   <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>86,62%</t>
   </si>
   <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C12ECF6-25DE-45EC-85CE-142C04239830}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F6E72F-79EE-4353-80C7-856F8D382C75}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1879,7 +1885,7 @@
         <v>1428</v>
       </c>
       <c r="N4" s="7">
-        <v>1439378</v>
+        <v>1439377</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2032,7 +2038,7 @@
         <v>2329</v>
       </c>
       <c r="N7" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2055,7 +2061,7 @@
         <v>1534</v>
       </c>
       <c r="D8" s="7">
-        <v>1579765</v>
+        <v>1579766</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2208,7 +2214,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2467,7 +2473,7 @@
         <v>2747</v>
       </c>
       <c r="D16" s="7">
-        <v>2820228</v>
+        <v>2820227</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>97</v>
@@ -2482,7 +2488,7 @@
         <v>2538</v>
       </c>
       <c r="I16" s="7">
-        <v>2593600</v>
+        <v>2593599</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>100</v>
@@ -2497,7 +2503,7 @@
         <v>5285</v>
       </c>
       <c r="N16" s="7">
-        <v>5413827</v>
+        <v>5413828</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>103</v>
@@ -2620,7 +2626,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2635,7 +2641,7 @@
         <v>3297</v>
       </c>
       <c r="I19" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2650,7 +2656,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2683,7 +2689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E22ACFE-56DA-4315-A08A-F663F614D876}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAB5433-66D8-4CD3-8A84-6C8E42DB4582}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3246,7 +3252,7 @@
         <v>785</v>
       </c>
       <c r="N12" s="7">
-        <v>865531</v>
+        <v>865532</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>185</v>
@@ -3399,7 +3405,7 @@
         <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3638,7 +3644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1956AA3C-92BC-4BD6-91AB-3684E8F4EB5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE78CE0-15A9-485D-83F6-0E6DFD4F98D9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4201,7 +4207,7 @@
         <v>951</v>
       </c>
       <c r="N12" s="7">
-        <v>1007006</v>
+        <v>1007007</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -4354,7 +4360,7 @@
         <v>1027</v>
       </c>
       <c r="N15" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4593,7 +4599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD14ACE6-5E20-45D7-987E-DA6C08D601EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0090C09D-142F-410A-94CD-9622E25AE9A2}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4714,7 +4720,7 @@
         <v>433</v>
       </c>
       <c r="D4" s="7">
-        <v>346534</v>
+        <v>331633</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>330</v>
@@ -4729,7 +4735,7 @@
         <v>621</v>
       </c>
       <c r="I4" s="7">
-        <v>375791</v>
+        <v>342734</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>333</v>
@@ -4744,7 +4750,7 @@
         <v>1054</v>
       </c>
       <c r="N4" s="7">
-        <v>722324</v>
+        <v>674367</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>336</v>
@@ -4765,46 +4771,46 @@
         <v>141</v>
       </c>
       <c r="D5" s="7">
-        <v>110389</v>
+        <v>104512</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>146</v>
+        <v>339</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H5" s="7">
         <v>440</v>
       </c>
       <c r="I5" s="7">
-        <v>252663</v>
+        <v>226983</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M5" s="7">
         <v>581</v>
       </c>
       <c r="N5" s="7">
-        <v>363052</v>
+        <v>331495</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,46 +4822,46 @@
         <v>117</v>
       </c>
       <c r="D6" s="7">
-        <v>84711</v>
+        <v>78793</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H6" s="7">
         <v>365</v>
       </c>
       <c r="I6" s="7">
-        <v>206869</v>
+        <v>185218</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M6" s="7">
         <v>482</v>
       </c>
       <c r="N6" s="7">
-        <v>291580</v>
+        <v>264011</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,7 +4873,7 @@
         <v>691</v>
       </c>
       <c r="D7" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4882,7 +4888,7 @@
         <v>1426</v>
       </c>
       <c r="I7" s="7">
-        <v>835323</v>
+        <v>754935</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4897,7 +4903,7 @@
         <v>2117</v>
       </c>
       <c r="N7" s="7">
-        <v>1376956</v>
+        <v>1269873</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4920,46 +4926,46 @@
         <v>1682</v>
       </c>
       <c r="D8" s="7">
-        <v>1832017</v>
+        <v>1782718</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H8" s="7">
         <v>2369</v>
       </c>
       <c r="I8" s="7">
-        <v>1921005</v>
+        <v>1938434</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M8" s="7">
         <v>4051</v>
       </c>
       <c r="N8" s="7">
-        <v>3753023</v>
+        <v>3721152</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,46 +4977,46 @@
         <v>240</v>
       </c>
       <c r="D9" s="7">
-        <v>265202</v>
+        <v>446896</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H9" s="7">
         <v>418</v>
       </c>
       <c r="I9" s="7">
-        <v>246776</v>
+        <v>225023</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M9" s="7">
         <v>658</v>
       </c>
       <c r="N9" s="7">
-        <v>511978</v>
+        <v>671919</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>213</v>
+        <v>371</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>253</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,46 +5028,46 @@
         <v>70</v>
       </c>
       <c r="D10" s="7">
-        <v>64803</v>
+        <v>60713</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>298</v>
+        <v>374</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H10" s="7">
         <v>134</v>
       </c>
       <c r="I10" s="7">
-        <v>81738</v>
+        <v>74365</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M10" s="7">
         <v>204</v>
       </c>
       <c r="N10" s="7">
-        <v>146542</v>
+        <v>135078</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>377</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>378</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,7 +5079,7 @@
         <v>1992</v>
       </c>
       <c r="D11" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5088,7 +5094,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5103,7 +5109,7 @@
         <v>4913</v>
       </c>
       <c r="N11" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5126,28 +5132,28 @@
         <v>620</v>
       </c>
       <c r="D12" s="7">
-        <v>625727</v>
+        <v>602131</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>380</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H12" s="7">
         <v>889</v>
       </c>
       <c r="I12" s="7">
-        <v>647715</v>
+        <v>600215</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>383</v>
+        <v>157</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>384</v>
@@ -5156,7 +5162,7 @@
         <v>1509</v>
       </c>
       <c r="N12" s="7">
-        <v>1273443</v>
+        <v>1202346</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>385</v>
@@ -5177,46 +5183,46 @@
         <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>34153</v>
+        <v>32213</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>220</v>
+        <v>388</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
       </c>
       <c r="I13" s="7">
-        <v>48466</v>
+        <v>44415</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>326</v>
+        <v>391</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M13" s="7">
         <v>128</v>
       </c>
       <c r="N13" s="7">
-        <v>82619</v>
+        <v>76627</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,46 +5234,46 @@
         <v>16</v>
       </c>
       <c r="D14" s="7">
-        <v>12341</v>
+        <v>11532</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>375</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
       </c>
       <c r="I14" s="7">
-        <v>17705</v>
+        <v>15833</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
       </c>
       <c r="N14" s="7">
-        <v>30046</v>
+        <v>27366</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,7 +5285,7 @@
         <v>680</v>
       </c>
       <c r="D15" s="7">
-        <v>672221</v>
+        <v>645876</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5294,7 +5300,7 @@
         <v>1004</v>
       </c>
       <c r="I15" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5309,7 +5315,7 @@
         <v>1684</v>
       </c>
       <c r="N15" s="7">
-        <v>1386108</v>
+        <v>1306339</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5332,46 +5338,46 @@
         <v>2735</v>
       </c>
       <c r="D16" s="7">
-        <v>2804278</v>
+        <v>2716483</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>400</v>
+        <v>308</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H16" s="7">
         <v>3879</v>
       </c>
       <c r="I16" s="7">
-        <v>2944512</v>
+        <v>2881383</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="M16" s="7">
         <v>6614</v>
       </c>
       <c r="N16" s="7">
-        <v>5748790</v>
+        <v>5597865</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,46 +5389,46 @@
         <v>425</v>
       </c>
       <c r="D17" s="7">
-        <v>409744</v>
+        <v>583621</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H17" s="7">
         <v>942</v>
       </c>
       <c r="I17" s="7">
-        <v>547905</v>
+        <v>496421</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>1367</v>
       </c>
       <c r="N17" s="7">
-        <v>957649</v>
+        <v>1080041</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,46 +5440,46 @@
         <v>203</v>
       </c>
       <c r="D18" s="7">
-        <v>161855</v>
+        <v>151039</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>419</v>
+        <v>376</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H18" s="7">
         <v>530</v>
       </c>
       <c r="I18" s="7">
-        <v>306313</v>
+        <v>275417</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>82</v>
+        <v>423</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="M18" s="7">
         <v>733</v>
       </c>
       <c r="N18" s="7">
-        <v>468168</v>
+        <v>426456</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>424</v>
+        <v>188</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,7 +5491,7 @@
         <v>3363</v>
       </c>
       <c r="D19" s="7">
-        <v>3375877</v>
+        <v>3451142</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5500,7 +5506,7 @@
         <v>5351</v>
       </c>
       <c r="I19" s="7">
-        <v>3798730</v>
+        <v>3653221</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5515,7 +5521,7 @@
         <v>8714</v>
       </c>
       <c r="N19" s="7">
-        <v>7174607</v>
+        <v>7104362</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
